--- a/data/trans_camb/P43-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P43-Clase-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 5,46</t>
+          <t>-11,14; 5,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 10,99</t>
+          <t>-4,28; 12,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 22,12</t>
+          <t>7,34; 22,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 5,46</t>
+          <t>-11,14; 5,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 10,99</t>
+          <t>-4,28; 12,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 22,12</t>
+          <t>7,34; 22,25</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 12,74</t>
+          <t>-22,32; 12,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 25,73</t>
+          <t>-8,47; 28,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 53,81</t>
+          <t>14,28; 52,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 12,74</t>
+          <t>-22,32; 12,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 25,73</t>
+          <t>-8,47; 28,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 53,81</t>
+          <t>14,28; 52,94</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 15,36</t>
+          <t>0,07; 15,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 22,88</t>
+          <t>8,14; 22,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,17; 36,15</t>
+          <t>21,31; 35,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 15,36</t>
+          <t>0,07; 15,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 22,88</t>
+          <t>8,14; 22,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,17; 36,15</t>
+          <t>21,31; 35,72</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 57,67</t>
+          <t>0,11; 55,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,97; 83,05</t>
+          <t>22,8; 82,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,73; 132,28</t>
+          <t>62,44; 128,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 57,67</t>
+          <t>0,11; 55,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,97; 83,05</t>
+          <t>22,8; 82,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,73; 132,28</t>
+          <t>62,44; 128,94</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 20,32</t>
+          <t>0,8; 20,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 25,15</t>
+          <t>4,16; 25,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,67; 33,95</t>
+          <t>12,39; 33,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 20,32</t>
+          <t>0,8; 20,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 25,15</t>
+          <t>4,16; 25,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,67; 33,95</t>
+          <t>12,39; 33,88</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 56,79</t>
+          <t>1,49; 58,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 70,47</t>
+          <t>9,1; 71,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,72; 95,2</t>
+          <t>25,72; 94,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 56,79</t>
+          <t>1,49; 58,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 70,47</t>
+          <t>9,1; 71,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,72; 95,2</t>
+          <t>25,72; 94,54</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 11,44</t>
+          <t>1,53; 12,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 12,45</t>
+          <t>3,1; 13,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,54; 48,73</t>
+          <t>14,36; 52,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 11,44</t>
+          <t>1,53; 12,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 12,45</t>
+          <t>3,1; 13,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,54; 48,73</t>
+          <t>14,36; 52,72</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,52; 36,8</t>
+          <t>4,65; 38,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,66; 40,03</t>
+          <t>8,38; 43,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,63; 170,08</t>
+          <t>41,26; 165,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,52; 36,8</t>
+          <t>4,65; 38,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,66; 40,03</t>
+          <t>8,38; 43,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>42,63; 170,08</t>
+          <t>41,26; 165,4</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,42; 21,48</t>
+          <t>10,01; 21,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,42; 26,49</t>
+          <t>15,18; 26,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 25,15</t>
+          <t>-0,01; 24,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,42; 21,48</t>
+          <t>10,01; 21,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,42; 26,49</t>
+          <t>15,18; 26,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 25,15</t>
+          <t>-0,01; 24,97</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,76; 66,15</t>
+          <t>25,55; 64,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>39,51; 81,64</t>
+          <t>38,99; 81,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,59; 73,98</t>
+          <t>0,38; 73,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,76; 66,15</t>
+          <t>25,55; 64,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>39,51; 81,64</t>
+          <t>38,99; 81,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,59; 73,98</t>
+          <t>0,38; 73,18</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,02</t>
+          <t>6,52; 15,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,76</t>
+          <t>6,81; 15,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,63</t>
+          <t>0,57; 9,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,02</t>
+          <t>6,52; 15,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,76</t>
+          <t>6,81; 15,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,63</t>
+          <t>0,57; 9,95</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,35; 38,52</t>
+          <t>15,11; 38,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,88; 40,49</t>
+          <t>16,01; 39,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2,08; 24,76</t>
+          <t>1,72; 25,12</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,35; 38,52</t>
+          <t>15,11; 38,99</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>16,88; 40,49</t>
+          <t>16,01; 39,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,08; 24,76</t>
+          <t>1,72; 25,12</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,76</t>
+          <t>6,72; 11,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,63</t>
+          <t>9,74; 14,4</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,31; 27,84</t>
+          <t>13,02; 27,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,76</t>
+          <t>6,72; 11,54</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,63</t>
+          <t>9,74; 14,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,31; 27,84</t>
+          <t>13,02; 27,73</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>17,94; 32,26</t>
+          <t>17,06; 31,5</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>25,2; 39,93</t>
+          <t>24,75; 39,06</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>34,61; 74,81</t>
+          <t>33,83; 75,25</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>17,94; 32,26</t>
+          <t>17,06; 31,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>25,2; 39,93</t>
+          <t>24,75; 39,06</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>34,61; 74,81</t>
+          <t>33,83; 75,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P43-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
